--- a/Fichero Diputados.xlsx
+++ b/Fichero Diputados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisalbertovaldezhernandez/Dropbox/INESLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0C121E-356D-8745-826D-B25929529991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58EB4A8-512E-B64F-895D-0014E54F0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>Redes sociales:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>José Miguel Gutiérrez Morales</t>
   </si>
@@ -62,9 +59,6 @@
     <t>Primer lugar: Morena, 85,257 votos (54.58%)
 Segundo lugar: PAN-PRI-PRD-NAEM, 27,824 votos (17.81%)
 Margen de victoria: 57,433 votos (36.77%)</t>
-  </si>
-  <si>
-    <t>Suplente:</t>
   </si>
   <si>
     <t>Alejandro Martinez Peña</t>
@@ -185,6 +179,18 @@
     <t>No se registran antecedentes de sanciones firmes ni procesos penales en su contra. 
 Derivado de las auditorías a su gestión como alcalde, el OSFEM emitió algunas observaciones. En la revisión de la Cuenta Pública 2019 del Ayuntamiento de Chalco, el OSFEM detectó posibles irregularidades por un monto de 29 millones 491 mil pesos, equivalentes al 3.4% de la muestra auditada (https://goo.su/tTG9f).
 Al concluir su mandato 2019-2021, el OSFEM y la Contraloría revisaron su gestión; los resultados oficiales indican que se fincaron algunas Promociones de Responsabilidad Administrativa Sancionatoria (PRAS) para investigar a funcionarios subalternos por hallazgos menores, pero no se menciona al Presidente Municipal directamente en dichas PRAS.</t>
+  </si>
+  <si>
+    <t>Fotos</t>
+  </si>
+  <si>
+    <t>Suplente</t>
+  </si>
+  <si>
+    <t>Redes sociales</t>
+  </si>
+  <si>
+    <t>jose_miguel_gutierrez.jpg</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,12 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,13 +580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC45246-59C9-344B-B613-D55964117AAB}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,148 +614,155 @@
     <col min="21" max="21" width="99.5" customWidth="1"/>
     <col min="22" max="22" width="15.1640625" customWidth="1"/>
     <col min="23" max="23" width="23.5" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="163" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="T2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="163" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="V2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>10</v>
+      <c r="X2" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Fichero Diputados.xlsx
+++ b/Fichero Diputados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisalbertovaldezhernandez/Dropbox/INESLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58EB4A8-512E-B64F-895D-0014E54F0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395F687-C914-B642-907E-B8EF7686A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
 Al concluir su mandato 2019-2021, el OSFEM y la Contraloría revisaron su gestión; los resultados oficiales indican que se fincaron algunas Promociones de Responsabilidad Administrativa Sancionatoria (PRAS) para investigar a funcionarios subalternos por hallazgos menores, pero no se menciona al Presidente Municipal directamente en dichas PRAS.</t>
   </si>
   <si>
-    <t>Fotos</t>
-  </si>
-  <si>
     <t>Suplente</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>jose_miguel_gutierrez.jpg</t>
+  </si>
+  <si>
+    <t>Foto</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -682,13 +682,13 @@
         <v>30</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="163" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Fichero Diputados.xlsx
+++ b/Fichero Diputados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisalbertovaldezhernandez/Dropbox/INESLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395F687-C914-B642-907E-B8EF7686A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36C32D-233F-F74A-B35A-FF4E1B5A3A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,10 +187,10 @@
     <t>Redes sociales</t>
   </si>
   <si>
-    <t>jose_miguel_gutierrez.jpg</t>
-  </si>
-  <si>
     <t>Foto</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Pavanona/Diputados/refs/heads/main/jose_miguel_gutierrez.jpg</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,7 +589,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,7 +691,7 @@
         <v>44</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="163" customHeight="1" x14ac:dyDescent="0.2">
@@ -761,13 +764,14 @@
       <c r="W2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>46</v>
+      <c r="X2" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{D26B43C2-9E6B-9C42-9E10-80DCDA76F85A}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{B581EE85-7C34-B941-B58D-4A037595CBED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fichero Diputados.xlsx
+++ b/Fichero Diputados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisalbertovaldezhernandez/Dropbox/INESLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36C32D-233F-F74A-B35A-FF4E1B5A3A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E0EF2-8255-D14C-A57A-96F9D8BD11B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t>José Miguel Gutiérrez Morales</t>
   </si>
@@ -192,12 +192,291 @@
   <si>
     <t>https://raw.githubusercontent.com/Pavanona/Diputados/refs/heads/main/jose_miguel_gutierrez.jpg</t>
   </si>
+  <si>
+    <t>Ana Yurixi Leyva Piñón</t>
+  </si>
+  <si>
+    <t>Vladimir Hernández Villegas</t>
+  </si>
+  <si>
+    <t>Gabriel Kalid Mohamed Báez</t>
+  </si>
+  <si>
+    <t>Edgar Samuel Ríos Moreno</t>
+  </si>
+  <si>
+    <t>Octavio Martínez Vargas</t>
+  </si>
+  <si>
+    <t>Héctor Raúl García González</t>
+  </si>
+  <si>
+    <t>Edmundo Luis Valdeña Bastida</t>
+  </si>
+  <si>
+    <t>Gloria Vanessa Linares Zetina</t>
+  </si>
+  <si>
+    <t>Javier Cruz Jaramillo</t>
+  </si>
+  <si>
+    <t>Elena García Martínez</t>
+  </si>
+  <si>
+    <t>Rigoberto Vargas Cervantes</t>
+  </si>
+  <si>
+    <t>Alejandra Figueroa Adame</t>
+  </si>
+  <si>
+    <t>Carlos Alberto López Imm</t>
+  </si>
+  <si>
+    <t>Isaac Josué Hernández Méndez</t>
+  </si>
+  <si>
+    <t>Román Francisco Cortés Lugo</t>
+  </si>
+  <si>
+    <t>Pablo Fernández de Cevallos González</t>
+  </si>
+  <si>
+    <t>Krishna Karina Romero Velázquez</t>
+  </si>
+  <si>
+    <t>Itzel Daniela Ballesteros Lule</t>
+  </si>
+  <si>
+    <t>Esteban Juárez Hernández</t>
+  </si>
+  <si>
+    <t>Ernesto Santillán Ramírez</t>
+  </si>
+  <si>
+    <t>Ángel Adriel Negrete Avonce</t>
+  </si>
+  <si>
+    <t>María José Pérez Domínguez</t>
+  </si>
+  <si>
+    <t>Susana Estrada Rojas</t>
+  </si>
+  <si>
+    <t>Brenda Colette Miranda Vargas</t>
+  </si>
+  <si>
+    <t>Isaías Peláez Soria</t>
+  </si>
+  <si>
+    <t>Yesica Yanet Rojas Hernández</t>
+  </si>
+  <si>
+    <t>Valentín Martínez Castillo</t>
+  </si>
+  <si>
+    <t>Martha Azucena Camacho Reynoso</t>
+  </si>
+  <si>
+    <t>Israel Espíndola López</t>
+  </si>
+  <si>
+    <t>Selena Trujillo Arizmendi</t>
+  </si>
+  <si>
+    <t>Elías Rescala Jiménez</t>
+  </si>
+  <si>
+    <t>Samuel Hernández Cruz</t>
+  </si>
+  <si>
+    <t>Gerardo Pliego Santana</t>
+  </si>
+  <si>
+    <t>Mariano Camacho San Martín</t>
+  </si>
+  <si>
+    <t>Yareli Anai Esparza Acevedo</t>
+  </si>
+  <si>
+    <t>Arleth Stephanie Grimaldo Osorio</t>
+  </si>
+  <si>
+    <t>Sandra Patricia Santos Rodríguez</t>
+  </si>
+  <si>
+    <t>Osvaldo Cortés Contreras</t>
+  </si>
+  <si>
+    <t>Carlos Antonio Martínez Zurita Trejo</t>
+  </si>
+  <si>
+    <t>María del Carmen de la Rosa Mendoza</t>
+  </si>
+  <si>
+    <t>Zaira Cedillo Silva</t>
+  </si>
+  <si>
+    <t>Héctor Karim Carvallo Delfín</t>
+  </si>
+  <si>
+    <t>Armando Navarrete López</t>
+  </si>
+  <si>
+    <t>Sofía Martínez Molina</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 2. Toluca</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 3. Chimalhuacán</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 4. Lerma</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 5. Chimalhuacán</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 6. Ecatepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 7. Tenancingo</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 8. Ecatepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 9. Tejupilco</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 10. Valle de Bravo</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 11. Tultitlán</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 12. Teoloyucan</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 13. Atlacomulco</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 14. Jilotepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 15. Ixtlahuaca</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 16. Atizapán</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 17. Huixquilucan</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 18. Tlalnepantla</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 19. Tultepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 20. Zumpango</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 21. Ecatepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 22. Ojo de Agua</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 23. Texcoco</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 24. Nezahualcóyotl</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 25. Nezahualcóyotl</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 26. Cuautitlán Izcalli</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 27. Valle de Chalco</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 28. Amecameca</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 29. Tianguistenco</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 30. Naucalpan</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 31. Los Reyes</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 32. Naucalpan</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 33. Tecámac</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 34. Toluca</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 35. Metepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 36. Zinacantepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 37. Tlalnepantla</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 38. Coacalco</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 39. Tepexpan</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 40. Ixtapaluca</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 41. Nezahualcóyotl</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 42. Ecatepec</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 43. Cuautitlán Izcalli</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 44. Nicolás Romero</t>
+  </si>
+  <si>
+    <t>Diputado por el Distrito Electoral Local No. 45. Almoloya de Juárez</t>
+  </si>
+  <si>
+    <t> Movimiento Regeneración Nacional</t>
+  </si>
+  <si>
+    <t> Partido del Trabajo</t>
+  </si>
+  <si>
+    <t> Partido Verde Ecologista de México</t>
+  </si>
+  <si>
+    <t> Partido Acción Nacional</t>
+  </si>
+  <si>
+    <t> Partido Revolucionario Institucional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +499,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -249,11 +534,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,6 +559,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,18 +883,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC45246-59C9-344B-B613-D55964117AAB}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
@@ -620,158 +920,643 @@
     <col min="24" max="24" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="163" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{D26B43C2-9E6B-9C42-9E10-80DCDA76F85A}"/>
     <hyperlink ref="X2" r:id="rId2" xr:uid="{B581EE85-7C34-B941-B58D-4A037595CBED}"/>
+    <hyperlink ref="A30" r:id="rId3" tooltip="Martha Azucena Camacho Reynoso" display="https://es.wikipedia.org/wiki/Martha_Azucena_Camacho_Reynoso" xr:uid="{BE380527-1E89-2B43-9D14-F158F7EB5E23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
